--- a/data/codebook-main-step2step3-sample-without-results.xlsx
+++ b/data/codebook-main-step2step3-sample-without-results.xlsx
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="AM36">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="37">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="AM37">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="AM38">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="39">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="AM39">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="AM40">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="41">
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="AM41">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="42">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="AM42">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>

--- a/data/codebook-main-step2step3-sample-without-results.xlsx
+++ b/data/codebook-main-step2step3-sample-without-results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,195 +360,200 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>row_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>article_id_recoded</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>journal_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url_article</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>study_recoded</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>empirical</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>compare_group</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>type_group</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>name_group</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>scale</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>reflective</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>name_scale</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type_scale</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>measure_scale</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>width_scale</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>width_scale_recoded</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>no_items</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>n_rep</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>n1_rep</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>n2_rep</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>n3_rep</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>n4_rep</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>n5_rep</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>reltot</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>rel1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>rel2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>rel3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>rel4</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>rel5</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>mitest_rep</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>mimethod_rep</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>miresult_rep</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>milevel_rep</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -556,34 +561,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0204012</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2018</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>moreira</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I2">
         <v>1</v>
@@ -594,96 +599,140 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Time point</t>
         </is>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Battery of cognitive test (MMSE (cognition) + SRT (only certain domains; measures memory))</t>
         </is>
       </c>
-      <c r="P2">
-        <v>1</v>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>0.8</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="X2">
-        <v>86</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
           <t>Width scale: combination of different type of scales. These two scales are combined in one measurement model over time (so 2 * 2 factors). "By means of a confirmatory factor analysis approach; we tested whether a two-factor solution [corresponding to measures of memory performance (MEM) and executive functioning (EXEC)] was reliable over time. Nested models of longitudinal invariance demonstrated the existence of partial strong invariance over time. In other words; this indicates that there is an equivalence of the factorial structure and factor loadings for all items; this was also observed for the item intercepts for all the items; except for one of the items from the EXEC dimension."</t>
         </is>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>77</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0207331</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2018</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Schulze</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I3">
         <v>1</v>
@@ -692,125 +741,147 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>US (2 groups) and German (2 groups) and Indian (1 group)</t>
         </is>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Turker CSR</t>
         </is>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>15.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="X3">
-        <v>194</v>
-      </c>
-      <c r="Y3">
-        <v>155</v>
-      </c>
-      <c r="Z3">
-        <v>193</v>
-      </c>
-      <c r="AA3">
-        <v>432</v>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
           <t>reliability only calculated for samples 1-4; the corresponding McDonald's omega is .77. They found metric invariance in groups 1-4; but failed to find configural invariance in sample 5. Scale is adapted.</t>
         </is>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="B4">
         <v>133</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2019</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,105 +892,155 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>ages (young: 20 to 39 years; middle: 40 to 59 years; older: 60 years and above)</t>
         </is>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="X4">
-        <v>1478</v>
-      </c>
-      <c r="Y4">
-        <v>918</v>
-      </c>
-      <c r="Z4">
-        <v>148</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2544.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1478.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>918.0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI4">
-        <v>2</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
           <t>the authors use two scales (CBI and PHQ) and extract five factors from these two scales. These five factors are then compared for all groups. Therefore I split the scales into 5 (with 6 groups makes 30 rows) and coded name_scale with both scales combined. The CBI and PHQ are not investigated separately. Not sure which kind of DIF is found.  The MIMIC was used (and applied to the whole scale) but since the analysis was performed item by item I indicated that an IRT approach was used.</t>
         </is>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="B5">
         <v>133</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2019</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I5">
         <v>1</v>
@@ -928,94 +1049,142 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>male and female</t>
         </is>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="X5">
-        <v>784</v>
-      </c>
-      <c r="Y5">
-        <v>1753</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2537.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI5">
-        <v>2</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN5">
         <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="B6">
         <v>133</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2019</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1024,110 +1193,167 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>ethnicity (chinese and malay and indian and others)</t>
         </is>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2531</t>
-        </is>
-      </c>
-      <c r="X6">
-        <v>1650</v>
-      </c>
-      <c r="Y6">
-        <v>400</v>
-      </c>
-      <c r="Z6">
-        <v>278</v>
-      </c>
-      <c r="AA6">
-        <v>203</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI6">
-        <v>2</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="B7">
         <v>133</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2019</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1136,107 +1362,157 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>marital status (single and married and divorced/separate)</t>
         </is>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2511</t>
-        </is>
-      </c>
-      <c r="X7">
-        <v>923</v>
-      </c>
-      <c r="Y7">
-        <v>1499</v>
-      </c>
-      <c r="Z7">
-        <v>89</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2511.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI7">
-        <v>2</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="B8">
         <v>133</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2019</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1245,96 +1521,172 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>education level (Secondary and below; Vocational/ITE; Diploma; Tertiary including Bachelor; Postgraduate Diploma; Master and Doctorate Degree)</t>
         </is>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X8">
-        <v>430</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI8">
-        <v>2</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>133</v>
+        <v>434</v>
       </c>
       <c r="B9">
         <v>133</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2019</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1343,107 +1695,157 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>sector (Healthcare; Legal and Banking)</t>
         </is>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Demand</t>
         </is>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="X9">
-        <v>1698</v>
-      </c>
-      <c r="Y9">
-        <v>819</v>
-      </c>
-      <c r="Z9">
-        <v>196</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2713.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1698.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI9">
-        <v>2</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="B10">
         <v>133</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2019</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1454,105 +1856,155 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>ages (young: 20 to 39 years; middle: 40 to 59 years; older: 60 years and above)</t>
         </is>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="X10">
-        <v>1478</v>
-      </c>
-      <c r="Y10">
-        <v>918</v>
-      </c>
-      <c r="Z10">
-        <v>148</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2544.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1478.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>918.0</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI10">
-        <v>2</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="B11">
         <v>133</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2019</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1561,94 +2013,142 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>male and female</t>
         </is>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="X11">
-        <v>784</v>
-      </c>
-      <c r="Y11">
-        <v>1753</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2537.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI11">
-        <v>2</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN11">
         <v>436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>133</v>
+        <v>437</v>
       </c>
       <c r="B12">
         <v>133</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2019</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1657,100 +2157,162 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>ethnicity (chinese and malay and indian and others)</t>
         </is>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2531</t>
-        </is>
-      </c>
-      <c r="X12">
-        <v>1650</v>
-      </c>
-      <c r="Y12">
-        <v>400</v>
-      </c>
-      <c r="Z12">
-        <v>278</v>
-      </c>
-      <c r="AA12">
-        <v>203</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI12">
-        <v>2</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN12">
         <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>133</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <v>133</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2019</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1759,97 +2321,152 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>marital status (single and married and divorced/separate)</t>
         </is>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2511</t>
-        </is>
-      </c>
-      <c r="X13">
-        <v>923</v>
-      </c>
-      <c r="Y13">
-        <v>1499</v>
-      </c>
-      <c r="Z13">
-        <v>89</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2511.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI13">
-        <v>2</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN13">
         <v>438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="B14">
         <v>133</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2019</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1858,96 +2475,172 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>education level (Secondary and below; Vocational/ITE; Diploma; Tertiary including Bachelor; Postgraduate Diploma; Master and Doctorate Degree)</t>
         </is>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14">
-        <v>430</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI14">
-        <v>2</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="B15">
         <v>133</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2019</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1956,107 +2649,157 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>sector (Healthcare; Legal and Banking)</t>
         </is>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Job Control</t>
         </is>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="X15">
-        <v>1698</v>
-      </c>
-      <c r="Y15">
-        <v>819</v>
-      </c>
-      <c r="Z15">
-        <v>196</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2713.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1698.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI15">
-        <v>2</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
           <t>not sure which kind of DIF is found; reporting states measurement non invariance in certain items but not which level. Coded as partial invariance.</t>
         </is>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>440</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="B16">
         <v>133</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2019</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2067,95 +2810,150 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>ages (young: 20 to 39 years; middle: 40 to 59 years; older: 60 years and above)</t>
         </is>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="X16">
-        <v>1478</v>
-      </c>
-      <c r="Y16">
-        <v>918</v>
-      </c>
-      <c r="Z16">
-        <v>148</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2544.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>1478.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>918.0</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI16">
-        <v>2</v>
-      </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
-      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN16">
         <v>441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="B17">
         <v>133</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2019</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2164,94 +2962,142 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>male and female</t>
         </is>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="X17">
-        <v>784</v>
-      </c>
-      <c r="Y17">
-        <v>1753</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2537.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI17">
-        <v>2</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN17">
         <v>442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="B18">
         <v>133</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2019</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2260,100 +3106,162 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>ethnicity (chinese and malay and indian and others)</t>
         </is>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2531</t>
-        </is>
-      </c>
-      <c r="X18">
-        <v>1650</v>
-      </c>
-      <c r="Y18">
-        <v>400</v>
-      </c>
-      <c r="Z18">
-        <v>278</v>
-      </c>
-      <c r="AA18">
-        <v>203</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI18">
-        <v>2</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN18">
         <v>443</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="B19">
         <v>133</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2019</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2362,97 +3270,152 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>marital status (single and married and divorced/separate)</t>
         </is>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2511</t>
-        </is>
-      </c>
-      <c r="X19">
-        <v>923</v>
-      </c>
-      <c r="Y19">
-        <v>1499</v>
-      </c>
-      <c r="Z19">
-        <v>89</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2511.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI19">
-        <v>2</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN19">
         <v>444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="B20">
         <v>133</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2019</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2461,86 +3424,167 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>education level (Secondary and below; Vocational/ITE; Diploma; Tertiary including Bachelor; Postgraduate Diploma; Master and Doctorate Degree)</t>
         </is>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X20">
-        <v>430</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI20">
-        <v>2</v>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN20">
         <v>445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="B21">
         <v>133</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2019</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2549,97 +3593,152 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>sector (Healthcare; Legal and Banking)</t>
         </is>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Supervisor Support</t>
         </is>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="X21">
-        <v>1698</v>
-      </c>
-      <c r="Y21">
-        <v>819</v>
-      </c>
-      <c r="Z21">
-        <v>196</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2713.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1698.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI21">
-        <v>2</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN21">
         <v>446</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="B22">
         <v>133</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2019</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2650,95 +3749,150 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>ages (young: 20 to 39 years; middle: 40 to 59 years; older: 60 years and above)</t>
         </is>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="X22">
-        <v>1478</v>
-      </c>
-      <c r="Y22">
-        <v>918</v>
-      </c>
-      <c r="Z22">
-        <v>148</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2544.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>1478.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>918.0</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI22">
-        <v>2</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN22">
         <v>447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="B23">
         <v>133</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2019</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2747,94 +3901,142 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>male and female</t>
         </is>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="X23">
-        <v>784</v>
-      </c>
-      <c r="Y23">
-        <v>1753</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2537.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI23">
-        <v>2</v>
-      </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
-      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN23">
         <v>448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="B24">
         <v>133</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2019</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2843,100 +4045,162 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>ethnicity (chinese and malay and indian and others)</t>
         </is>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2531</t>
-        </is>
-      </c>
-      <c r="X24">
-        <v>1650</v>
-      </c>
-      <c r="Y24">
-        <v>400</v>
-      </c>
-      <c r="Z24">
-        <v>278</v>
-      </c>
-      <c r="AA24">
-        <v>203</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI24">
-        <v>2</v>
-      </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
-      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN24">
         <v>449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="B25">
         <v>133</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2019</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2945,97 +4209,152 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>marital status (single and married and divorced/separate)</t>
         </is>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>2511</t>
-        </is>
-      </c>
-      <c r="X25">
-        <v>923</v>
-      </c>
-      <c r="Y25">
-        <v>1499</v>
-      </c>
-      <c r="Z25">
-        <v>89</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2511.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI25">
-        <v>2</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN25">
         <v>450</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>133</v>
+        <v>451</v>
       </c>
       <c r="B26">
         <v>133</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2019</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3044,86 +4363,167 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>education level (Secondary and below; Vocational/ITE; Diploma; Tertiary including Bachelor; Postgraduate Diploma; Master and Doctorate Degree)</t>
         </is>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X26">
-        <v>430</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI26">
-        <v>2</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN26">
         <v>451</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="B27">
         <v>133</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2019</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3132,97 +4532,152 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>sector (Healthcare; Legal and Banking)</t>
         </is>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Employee and management engagement</t>
         </is>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="X27">
-        <v>1698</v>
-      </c>
-      <c r="Y27">
-        <v>819</v>
-      </c>
-      <c r="Z27">
-        <v>196</v>
-      </c>
-      <c r="AH27">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2713.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1698.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI27">
-        <v>2</v>
-      </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN27">
         <v>452</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>133</v>
+        <v>453</v>
       </c>
       <c r="B28">
         <v>133</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2019</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3233,95 +4688,150 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>ages (young: 20 to 39 years; middle: 40 to 59 years; older: 60 years and above)</t>
         </is>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
       <c r="Q28">
         <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="X28">
-        <v>1478</v>
-      </c>
-      <c r="Y28">
-        <v>918</v>
-      </c>
-      <c r="Z28">
-        <v>148</v>
-      </c>
-      <c r="AH28">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2544.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>1478.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>918.0</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI28">
-        <v>2</v>
-      </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
-      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN28">
         <v>453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>133</v>
+        <v>454</v>
       </c>
       <c r="B29">
         <v>133</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2019</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3330,94 +4840,142 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>male and female</t>
         </is>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="X29">
-        <v>784</v>
-      </c>
-      <c r="Y29">
-        <v>1753</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>2537.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI29">
-        <v>2</v>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN29">
         <v>454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="B30">
         <v>133</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2019</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3426,100 +4984,162 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>ethnicity (chinese and malay and indian and others)</t>
         </is>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2531</t>
-        </is>
-      </c>
-      <c r="X30">
-        <v>1650</v>
-      </c>
-      <c r="Y30">
-        <v>400</v>
-      </c>
-      <c r="Z30">
-        <v>278</v>
-      </c>
-      <c r="AA30">
-        <v>203</v>
-      </c>
-      <c r="AH30">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI30">
-        <v>2</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN30">
         <v>455</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="B31">
         <v>133</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2019</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H31">
-        <v>1</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3528,97 +5148,152 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>marital status (single and married and divorced/separate)</t>
         </is>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>2511</t>
-        </is>
-      </c>
-      <c r="X31">
-        <v>923</v>
-      </c>
-      <c r="Y31">
-        <v>1499</v>
-      </c>
-      <c r="Z31">
-        <v>89</v>
-      </c>
-      <c r="AH31">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2511.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI31">
-        <v>2</v>
-      </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
-      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN31">
         <v>456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="B32">
         <v>133</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2019</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3627,86 +5302,167 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>education level (Secondary and below; Vocational/ITE; Diploma; Tertiary including Bachelor; Postgraduate Diploma; Master and Doctorate Degree)</t>
         </is>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X32">
-        <v>430</v>
-      </c>
-      <c r="AH32">
-        <v>1</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI32">
-        <v>2</v>
-      </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
-      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN32">
         <v>457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="B33">
         <v>133</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0220566</t>
         </is>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2019</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>abdin</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3715,97 +5471,152 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>sector (Healthcare; Legal and Banking)</t>
         </is>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>CBI (burnout) and PHQ-2 (depression and anhedonia); Factor Colleague support</t>
         </is>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="X33">
-        <v>1698</v>
-      </c>
-      <c r="Y33">
-        <v>819</v>
-      </c>
-      <c r="Z33">
-        <v>196</v>
-      </c>
-      <c r="AH33">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2713.0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>1698.0</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI33">
-        <v>2</v>
-      </c>
-      <c r="AJ33">
-        <v>1</v>
-      </c>
-      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN33">
         <v>458</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>207</v>
+        <v>865</v>
       </c>
       <c r="B34">
         <v>207</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0221696</t>
         </is>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2019</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Ortuno-Sierra</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3816,109 +5627,135 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>educational level (primary and secondary)</t>
         </is>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>PANAS</t>
         </is>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20.0</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>665</t>
-        </is>
-      </c>
-      <c r="X34">
-        <v>367</v>
-      </c>
-      <c r="AB34" t="inlineStr">
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="AH34">
-        <v>1</v>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI34">
         <v>1</v>
       </c>
-      <c r="AJ34">
-        <v>1</v>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AM34">
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AN34">
         <v>865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>207</v>
+        <v>866</v>
       </c>
       <c r="B35">
         <v>207</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0221696</t>
         </is>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2019</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Ortuno-Sierra</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3927,111 +5764,137 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>PANAS</t>
         </is>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20.0</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="X35">
-        <v>501</v>
-      </c>
-      <c r="AB35" t="inlineStr">
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>531.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="AH35">
-        <v>1</v>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI35">
         <v>1</v>
       </c>
-      <c r="AJ35">
-        <v>1</v>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AM35">
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AN35">
         <v>866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>945</v>
+      </c>
+      <c r="B36">
         <v>351</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>230</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619841265</t>
         </is>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2019</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Kievit</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4040,92 +5903,142 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>gender (boys/girls)</t>
         </is>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>Wechsler Abbreviated Scale of Intelligence</t>
         </is>
       </c>
-      <c r="P36">
-        <v>0</v>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
           <t>"With our current model specification and sample size; we had 73% power to detect a small coupling effect (r = .1; as defined by Gignac &amp; Szodorai; 2016) but effectively 100% power to detect intermediate (r = .2) and large (r = .3) effects."</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="X36">
-        <v>119</v>
-      </c>
-      <c r="AH36">
-        <v>1</v>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
           <t>Only measurement invariance is mentioned but nothing else. "As before; a multigroup model with gender as the grouping factor provided no evidence for differences". They also have multiple waves; but as far as I can see they only compare the model fit across the three waves; without testing for actual differences in vocabulary or matrix reasoning between these waves. MI-test:  "As before; we imposed measurement invariance for the g-factor model across occasions." The authors also state in their limitations/future research that fitting a MI model over time would be better.</t>
         </is>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>945</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>1134</v>
+      </c>
+      <c r="B37">
         <v>710</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>269</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619867939</t>
         </is>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2019</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>protzko</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>1</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4134,790 +6047,974 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>answering slowly and answering quickly</t>
         </is>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>Social Desirability Scale</t>
         </is>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
           <t>"The sample size was determined a pri-ori to maximize power and not on the basis of any power analysis because the expected effect size was unknown."</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="AH37">
-        <v>1</v>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI37">
         <v>1</v>
       </c>
-      <c r="AJ37">
-        <v>1</v>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AM37">
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AN37">
         <v>1134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>1144</v>
+      </c>
+      <c r="B38">
         <v>711</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>270</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2019</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Obaidi</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H38">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I38">
         <v>7</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Nations</t>
         </is>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>Group-based relative deprivation</t>
         </is>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
       <c r="Q38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>1263</t>
-        </is>
-      </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X38">
-        <v>232</v>
-      </c>
-      <c r="Y38">
-        <v>259</v>
-      </c>
-      <c r="Z38">
-        <v>243</v>
-      </c>
-      <c r="AA38">
-        <v>104</v>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="AD38">
-        <v>0.8</v>
-      </c>
-      <c r="AE38">
-        <v>0.79</v>
-      </c>
-      <c r="AF38">
-        <v>0.89</v>
-      </c>
-      <c r="AG38">
-        <v>0.92</v>
-      </c>
-      <c r="AH38">
-        <v>1</v>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
       </c>
       <c r="AI38">
         <v>1</v>
       </c>
-      <c r="AJ38">
-        <v>1</v>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
           <t>Reported in Supplemement; Sample 6 N = 366 and alpha = .79</t>
         </is>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>1144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>1145</v>
+      </c>
+      <c r="B39">
         <v>711</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>270</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2019</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Obaidi</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H39">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I39">
         <v>7</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Nations</t>
         </is>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>Muslim identification</t>
         </is>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>1263</t>
-        </is>
-      </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X39">
-        <v>232</v>
-      </c>
-      <c r="Y39">
-        <v>259</v>
-      </c>
-      <c r="Z39">
-        <v>243</v>
-      </c>
-      <c r="AA39">
-        <v>104</v>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AD39">
-        <v>0.92</v>
-      </c>
-      <c r="AE39">
-        <v>0.9</v>
-      </c>
-      <c r="AF39">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AG39">
-        <v>0.72</v>
-      </c>
-      <c r="AH39">
-        <v>1</v>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
       </c>
       <c r="AI39">
         <v>1</v>
       </c>
-      <c r="AJ39">
-        <v>1</v>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
           <t>Reported in Supplemement Sample 6 N = 366 and alpha = .9</t>
         </is>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>1145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>1146</v>
+      </c>
+      <c r="B40">
         <v>711</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>270</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2019</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Obaidi</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H40">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I40">
         <v>7</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Nations</t>
         </is>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
       <c r="N40">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>Perceived injustice</t>
         </is>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>1263</t>
-        </is>
-      </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X40">
-        <v>232</v>
-      </c>
-      <c r="Y40">
-        <v>259</v>
-      </c>
-      <c r="Z40">
-        <v>243</v>
-      </c>
-      <c r="AA40">
-        <v>104</v>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="AD40">
-        <v>0.87</v>
-      </c>
-      <c r="AE40">
-        <v>0.88</v>
-      </c>
-      <c r="AF40">
-        <v>0.89</v>
-      </c>
-      <c r="AG40">
-        <v>0.89</v>
-      </c>
-      <c r="AH40">
-        <v>1</v>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
       </c>
       <c r="AI40">
         <v>1</v>
       </c>
-      <c r="AJ40">
-        <v>1</v>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
           <t>Reported in Supplemement Sample 6 N = 366 and alpha = .6</t>
         </is>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>1146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>1147</v>
+      </c>
+      <c r="B41">
         <v>711</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>270</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2019</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Obaidi</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H41">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Nations</t>
         </is>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>Group-based anger</t>
         </is>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
       <c r="Q41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>1263</t>
-        </is>
-      </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X41">
-        <v>232</v>
-      </c>
-      <c r="Y41">
-        <v>259</v>
-      </c>
-      <c r="Z41">
-        <v>243</v>
-      </c>
-      <c r="AA41">
-        <v>104</v>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="AD41">
-        <v>0.91</v>
-      </c>
-      <c r="AE41">
-        <v>0.91</v>
-      </c>
-      <c r="AF41">
-        <v>0.84</v>
-      </c>
-      <c r="AG41">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH41">
-        <v>1</v>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
       </c>
       <c r="AI41">
         <v>1</v>
       </c>
-      <c r="AJ41">
-        <v>1</v>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
           <t>Reported in Supplemement Sample 6 N = 366 and alpha = .94</t>
         </is>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>1147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>1148</v>
+      </c>
+      <c r="B42">
         <v>711</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>270</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2019</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Obaidi</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H42">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I42">
         <v>7</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Nations</t>
         </is>
       </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
       <c r="N42">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>Violent Behavioral intentions</t>
         </is>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>1263</t>
-        </is>
-      </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X42">
-        <v>232</v>
-      </c>
-      <c r="Y42">
-        <v>259</v>
-      </c>
-      <c r="Z42">
-        <v>243</v>
-      </c>
-      <c r="AA42">
-        <v>104</v>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="AD42">
-        <v>0.79</v>
-      </c>
-      <c r="AE42">
-        <v>0.61</v>
-      </c>
-      <c r="AF42">
-        <v>0.87</v>
-      </c>
-      <c r="AG42">
-        <v>0.88</v>
-      </c>
-      <c r="AH42">
-        <v>1</v>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
       </c>
       <c r="AI42">
         <v>1</v>
       </c>
-      <c r="AJ42">
-        <v>1</v>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
           <t>Reported in Supplemement Sample 6 N = 366 and alpha = .64</t>
         </is>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>1148</v>
       </c>
     </row>

--- a/data/codebook-main-step2step3-sample-without-results.xlsx
+++ b/data/codebook-main-step2step3-sample-without-results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,7 +840,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN5">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN11">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN12">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN13">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN16">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN17">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN18">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN19">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN20">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN21">
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN22">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN23">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN24">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN25">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN26">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN27">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN28">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN29">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN30">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN31">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN32">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AN33">
@@ -5867,20 +5867,20 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>945</v>
+        <v>1134</v>
       </c>
       <c r="B36">
-        <v>351</v>
+        <v>710</v>
       </c>
       <c r="C36">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177%2F0956797619841265</t>
+          <t>https://doi.org/10.1177%2F0956797619867939</t>
         </is>
       </c>
       <c r="F36">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kievit</t>
+          <t>protzko</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5906,11 +5906,11 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>gender (boys/girls)</t>
+          <t>answering slowly and answering quickly</t>
         </is>
       </c>
       <c r="N36">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Wechsler Abbreviated Scale of Intelligence</t>
+          <t>Social Desirability Scale</t>
         </is>
       </c>
       <c r="Q36">
@@ -5929,42 +5929,42 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>"With our current model specification and sample size; we had 73% power to detect a small coupling effect (r = .1; as defined by Gignac &amp; Szodorai; 2016) but effectively 100% power to detect intermediate (r = .2) and large (r = .3) effects."</t>
+          <t>"The sample size was determined a pri-ori to maximize power and not on the basis of any power analysis because the expected effect size was unknown."</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>227.0</t>
+          <t>1500.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
@@ -5997,34 +5997,29 @@
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Only measurement invariance is mentioned but nothing else. "As before; a multigroup model with gender as the grouping factor provided no evidence for differences". They also have multiple waves; but as far as I can see they only compare the model fit across the three waves; without testing for actual differences in vocabulary or matrix reasoning between these waves. MI-test:  "As before; we imposed measurement invariance for the g-factor model across occasions." The authors also state in their limitations/future research that fitting a MI model over time would be better.</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AN36">
-        <v>945</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="B37">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C37">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177%2F0956797619867939</t>
+          <t>https://doi.org/10.1177%2F0956797619834879</t>
         </is>
       </c>
       <c r="F37">
@@ -6032,16 +6027,16 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>protzko</t>
+          <t>Obaidi</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -6054,7 +6049,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>answering slowly and answering quickly</t>
+          <t>Nations</t>
         </is>
       </c>
       <c r="N37">
@@ -6065,7 +6060,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Social Desirability Scale</t>
+          <t>Group-based relative deprivation</t>
         </is>
       </c>
       <c r="Q37">
@@ -6073,84 +6068,119 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>"The sample size was determined a pri-ori to maximize power and not on the basis of any power analysis because the expected effect size was unknown."</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>1500.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>3.0</t>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Reported in Supplemement; Sample 6 N = 366 and alpha = .79</t>
         </is>
       </c>
       <c r="AN37">
-        <v>1134</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B38">
         <v>711</v>
@@ -6204,11 +6234,11 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Group-based relative deprivation</t>
+          <t>Muslim identification</t>
         </is>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -6267,32 +6297,32 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AI38">
@@ -6315,16 +6345,16 @@
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>Reported in Supplemement; Sample 6 N = 366 and alpha = .79</t>
+          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .9</t>
         </is>
       </c>
       <c r="AN38">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B39">
         <v>711</v>
@@ -6378,11 +6408,11 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Muslim identification</t>
+          <t>Perceived injustice</t>
         </is>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -6441,32 +6471,32 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AI39">
@@ -6489,16 +6519,16 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .9</t>
+          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .6</t>
         </is>
       </c>
       <c r="AN39">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B40">
         <v>711</v>
@@ -6552,11 +6582,11 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Perceived injustice</t>
+          <t>Group-based anger</t>
         </is>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -6615,32 +6645,32 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI40">
@@ -6663,16 +6693,16 @@
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .6</t>
+          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .94</t>
         </is>
       </c>
       <c r="AN40">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B41">
         <v>711</v>
@@ -6726,11 +6756,11 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Group-based anger</t>
+          <t>Violent Behavioral intentions</t>
         </is>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -6789,32 +6819,32 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="AI41">
@@ -6837,184 +6867,10 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .94</t>
+          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .64</t>
         </is>
       </c>
       <c r="AN41">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>1148</v>
-      </c>
-      <c r="B42">
-        <v>711</v>
-      </c>
-      <c r="C42">
-        <v>270</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177%2F0956797619834879</t>
-        </is>
-      </c>
-      <c r="F42">
-        <v>2019</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Obaidi</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="I42">
-        <v>7</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Nations</t>
-        </is>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Violent Behavioral intentions</t>
-        </is>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>1263.0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>232.0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>259.0</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>243.0</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Reported in Supplemement Sample 6 N = 366 and alpha = .64</t>
-        </is>
-      </c>
-      <c r="AN42">
         <v>1148</v>
       </c>
     </row>
